--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacProd.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacProd.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046D47B3-064D-45F1-8E71-F647587AE03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F2506B-C388-499D-B04C-8A4A5FE65ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -281,10 +281,6 @@
   </si>
   <si>
     <t>BreachFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否限制清償</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -475,6 +471,10 @@
     <t>N:非階梯式
 A:固定階梯
 B:浮動階梯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否綁約</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1158,8 +1158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1288,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>11</v>
@@ -1324,10 +1324,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>61</v>
@@ -1365,7 +1365,7 @@
         <v>45</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>48</v>
@@ -1374,7 +1374,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1382,10 +1382,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>93</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>48</v>
@@ -1394,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1402,10 +1402,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>48</v>
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1452,7 +1452,7 @@
         <v>2</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1514,7 +1514,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
@@ -1522,10 +1522,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="24" t="s">
         <v>81</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>82</v>
       </c>
       <c r="D21" s="22" t="s">
         <v>48</v>
@@ -1535,7 +1535,7 @@
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1555,7 +1555,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1575,7 +1575,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1595,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1606,7 +1606,7 @@
         <v>70</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>48</v>
@@ -1615,7 +1615,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
@@ -1635,7 +1635,7 @@
         <v>3</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -1649,7 +1649,7 @@
         <v>65</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E27" s="3">
         <v>1</v>
@@ -1663,10 +1663,10 @@
         <v>20</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="28" t="s">
         <v>69</v>
@@ -1682,10 +1682,10 @@
         <v>21</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D29" s="28" t="s">
         <v>69</v>
@@ -1703,10 +1703,10 @@
         <v>22</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D30" s="28" t="s">
         <v>69</v>
@@ -1722,10 +1722,10 @@
         <v>23</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D31" s="28" t="s">
         <v>69</v>
@@ -1743,10 +1743,10 @@
         <v>24</v>
       </c>
       <c r="B32" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="27" t="s">
         <v>78</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>79</v>
       </c>
       <c r="D32" s="28" t="s">
         <v>69</v>
@@ -1762,10 +1762,10 @@
         <v>25</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D33" s="35" t="s">
         <v>48</v>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="F33" s="32"/>
       <c r="G33" s="36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3">
@@ -1783,10 +1783,10 @@
         <v>26</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D34" s="35" t="s">
         <v>48</v>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="F34" s="32"/>
       <c r="G34" s="36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1923,40 +1923,40 @@
         <v>44</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="C4" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="38" t="s">
-        <v>105</v>
-      </c>
       <c r="C5" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacProd.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacProd.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L2-業務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F2506B-C388-499D-B04C-8A4A5FE65ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D352874F-5960-4FA7-B8A7-E802F8677DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
+    <sheet name="政府優惠房屋貸款種類" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="132">
   <si>
     <t>備註說明</t>
   </si>
@@ -85,9 +86,6 @@
   </si>
   <si>
     <t>最後更新人員</t>
-  </si>
-  <si>
-    <t>政府優惠房貸</t>
   </si>
   <si>
     <t>指標利率代碼</t>
@@ -236,10 +234,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GovOfferFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FacProd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -313,6 +307,137 @@
   </si>
   <si>
     <t>還款起算比例%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RateCode</t>
+  </si>
+  <si>
+    <t>利率區分</t>
+  </si>
+  <si>
+    <t>共用代碼檔
+1: 機動 
+2: 固動 
+3: 定期機動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fildStatus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>限制清償期限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProhibitMonth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IFRS階梯商品別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IFRS產品別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共用代碼檔
+0:正常  
+1:停用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共用代碼檔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AgreementFg</t>
+  </si>
+  <si>
+    <t>是否為協議商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProdNo asc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>共用代碼檔(CdCode.BaseRate)
+01: 保單分紅利率 
+02: 郵政儲金利率
+99: 自訂利率</t>
+  </si>
+  <si>
+    <t>商品狀態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProdNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品生效日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnterpriseFg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fildentCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnterpriseFg ^i</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企金可使用記號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fildProdNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProdNo % ,AND StatusCode ^i ,AND EnterpriseFg ^i ,AND GovOfferFlag ^i ,AND FinancialFlag ^i ,AND EmpFlag ^i</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProdNo % ,AND StatusCode ^i ,AND GovOfferFlag ^i ,AND FinancialFlag ^i ,AND EmpFlag ^i</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ifrs9StepProdCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ifrs9ProdCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y:是
+N:否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N:非階梯式
+A:固定階梯
+B:浮動階梯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否綁約</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -342,147 +467,103 @@
         <charset val="136"/>
       </rPr>
       <t xml:space="preserve">
-005:依提前償還金額</t>
+005:依提前償還金額
+999:自訂</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RateCode</t>
-  </si>
-  <si>
-    <t>利率區分</t>
-  </si>
-  <si>
-    <t>共用代碼檔
-1: 機動 
-2: 固動 
-3: 定期機動</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fildStatus</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>限制清償期限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProhibitMonth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IFRS階梯商品別</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IFRS產品別</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共用代碼檔
-0:正常  
-1:停用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共用代碼檔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AgreementFg</t>
-  </si>
-  <si>
-    <t>是否為協議商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProdNo asc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>共用代碼檔(CdCode.BaseRate)
-01: 保單分紅利率 
-02: 郵政儲金利率
-99: 自訂利率</t>
-  </si>
-  <si>
-    <t>商品狀態</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProdNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品生效日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnterpriseFg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fildentCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnterpriseFg ^i</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>企金可使用記號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fildProdNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProdNo % ,AND StatusCode ^i ,AND EnterpriseFg ^i ,AND GovOfferFlag ^i ,AND FinancialFlag ^i ,AND EmpFlag ^i</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProdNo % ,AND StatusCode ^i ,AND GovOfferFlag ^i ,AND FinancialFlag ^i ,AND EmpFlag ^i</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ifrs9StepProdCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ifrs9ProdCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y:是
-N:否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N:非階梯式
-A:固定階梯
-B:浮動階梯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否綁約</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>政府優惠房屋貸款種類</t>
+  </si>
+  <si>
+    <t>政府固定補貼</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>青年優惠房屋貸款暨信用保證專案</t>
+  </si>
+  <si>
+    <t>IB</t>
+  </si>
+  <si>
+    <t>四千億元優惠購屋專案貸款</t>
+  </si>
+  <si>
+    <t>IC</t>
+  </si>
+  <si>
+    <t>續辦二千億元優惠購屋專案貸款</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>續辦四千八百億元優惠購屋專案貸款</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>IF</t>
+  </si>
+  <si>
+    <t>續辦六千億元優惠購屋專案貸款</t>
+  </si>
+  <si>
+    <t>IG</t>
+  </si>
+  <si>
+    <t>IH</t>
+  </si>
+  <si>
+    <t>增撥新台幣四千億元優惠購屋專案貸款</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>商品利率代碼</t>
+  </si>
+  <si>
+    <t>GovOfferFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府優惠房貸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GovOfferFlag
+政府優惠房貸</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">N:否
+政府優惠房屋貸款種類 :
+1-青年優惠房屋貸款暨信用保證專案      
+2-四千億元優惠購屋專案貸款            
+3-續辦二千億元優惠購屋專案貸款        
+4-續辦四千八百億元優惠購屋專案貸款    
+5-續辦六千億元優惠購屋專案貸款        
+6-增撥新台幣四千億元優惠購屋專案貸款  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府補貼增0.125%
+(111.3.23~111.12.20)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.000%"/>
+  </numFmts>
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -570,8 +651,36 @@
       <family val="1"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -590,8 +699,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -669,6 +784,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -678,11 +817,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -691,9 +830,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -730,13 +866,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -748,56 +881,59 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1158,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1167,119 +1303,119 @@
     <col min="1" max="1" width="4.88671875" style="3" customWidth="1"/>
     <col min="2" max="2" width="25.88671875" style="3" customWidth="1"/>
     <col min="3" max="3" width="28.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" style="7" customWidth="1"/>
     <col min="5" max="6" width="4.6640625" style="3" customWidth="1"/>
     <col min="7" max="7" width="65.21875" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="4"/>
+    <col min="8" max="16384" width="21.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="11" t="s">
-        <v>60</v>
+      <c r="A1" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="9" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="B5" s="43"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
+      <c r="B6" s="44"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1287,74 +1423,74 @@
       <c r="A9" s="3">
         <v>1</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" s="3">
         <v>5</v>
       </c>
-      <c r="G9" s="8"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" s="3">
         <v>60</v>
       </c>
-      <c r="G10" s="8"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>94</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E11" s="3">
         <v>8</v>
       </c>
-      <c r="G11" s="8"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E12" s="3">
         <v>8</v>
       </c>
-      <c r="G12" s="21" t="s">
-        <v>68</v>
+      <c r="G12" s="19" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1362,19 +1498,19 @@
         <v>5</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>95</v>
+        <v>44</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>92</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
       </c>
-      <c r="G13" s="13" t="s">
-        <v>89</v>
+      <c r="G13" s="12" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1382,39 +1518,39 @@
         <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>92</v>
+        <v>88</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
       </c>
-      <c r="G14" s="13" t="s">
-        <v>108</v>
+      <c r="G14" s="12" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>7</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>102</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
       </c>
-      <c r="G15" s="13" t="s">
-        <v>108</v>
+      <c r="G15" s="12" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1422,37 +1558,37 @@
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" s="3">
         <v>3</v>
       </c>
-      <c r="G16" s="7"/>
+      <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>9</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>21</v>
+        <v>39</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E17" s="3">
         <v>2</v>
       </c>
-      <c r="G17" s="39" t="s">
-        <v>94</v>
+      <c r="G17" s="29" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1460,13 +1596,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>32</v>
+        <v>40</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E18" s="3">
         <v>6</v>
@@ -1474,20 +1610,20 @@
       <c r="F18" s="3">
         <v>4</v>
       </c>
-      <c r="G18" s="7"/>
+      <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>11</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19" s="3">
         <v>6</v>
@@ -1495,381 +1631,379 @@
       <c r="F19" s="3">
         <v>4</v>
       </c>
-      <c r="G19" s="7"/>
+      <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>12</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>22</v>
+      <c r="B20" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
       </c>
-      <c r="G20" s="13" t="s">
-        <v>108</v>
+      <c r="G20" s="12" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>13</v>
       </c>
-      <c r="B21" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="22">
+      <c r="B21" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="20">
         <v>1</v>
       </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="20"/>
+      <c r="G21" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>14</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>20</v>
+      <c r="B22" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
       </c>
-      <c r="G22" s="14" t="s">
-        <v>108</v>
+      <c r="G22" s="13" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>15</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>33</v>
+      <c r="B23" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E23" s="3">
         <v>1</v>
       </c>
-      <c r="G23" s="14" t="s">
-        <v>108</v>
+      <c r="G23" s="13" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>16</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>64</v>
-      </c>
       <c r="D24" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
       </c>
-      <c r="G24" s="14" t="s">
-        <v>108</v>
+      <c r="G24" s="13" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>17</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>110</v>
+      <c r="B25" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E25" s="3">
         <v>1</v>
       </c>
-      <c r="G25" s="14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="G25" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>18</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="12" t="s">
+      <c r="B26" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E26" s="3">
         <v>3</v>
       </c>
-      <c r="G26" s="14" t="s">
-        <v>79</v>
+      <c r="G26" s="13" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>19</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>65</v>
+      <c r="B27" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E27" s="3">
         <v>1</v>
       </c>
-      <c r="G27" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>20</v>
       </c>
-      <c r="B28" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="28">
+      <c r="B28" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="20">
         <v>3</v>
       </c>
-      <c r="F28" s="29"/>
-      <c r="G28" s="30"/>
-    </row>
-    <row r="29" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="22"/>
+      <c r="G28" s="23"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>21</v>
       </c>
-      <c r="B29" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="28" t="s">
+      <c r="B29" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="25">
+      <c r="D29" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="3">
         <v>5</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F29" s="3">
         <v>2</v>
       </c>
-      <c r="G29" s="31"/>
-    </row>
-    <row r="30" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>22</v>
       </c>
-      <c r="B30" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="25">
+      <c r="B30" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="3">
         <v>3</v>
       </c>
-      <c r="F30" s="25"/>
-      <c r="G30" s="31"/>
-    </row>
-    <row r="31" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>23</v>
       </c>
-      <c r="B31" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="25">
+      <c r="B31" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="3">
         <v>5</v>
       </c>
-      <c r="F31" s="25">
+      <c r="F31" s="3">
         <v>2</v>
       </c>
-      <c r="G31" s="31"/>
-    </row>
-    <row r="32" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>24</v>
       </c>
-      <c r="B32" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="25">
+      <c r="B32" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="3">
         <v>3</v>
       </c>
-      <c r="F32" s="25"/>
-      <c r="G32" s="31"/>
-    </row>
-    <row r="33" spans="1:7" s="37" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="G32" s="13"/>
+    </row>
+    <row r="33" spans="1:7" s="28" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>25</v>
       </c>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="24">
+        <v>1</v>
+      </c>
+      <c r="F33" s="24"/>
+      <c r="G33" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="C33" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="32">
-        <v>1</v>
-      </c>
-      <c r="F33" s="32"/>
-      <c r="G33" s="36" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>26</v>
       </c>
-      <c r="B34" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="C34" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="D34" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34" s="32">
+      <c r="B34" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="24">
         <v>2</v>
       </c>
-      <c r="F34" s="32"/>
-      <c r="G34" s="36" t="s">
-        <v>90</v>
+      <c r="F34" s="24"/>
+      <c r="G34" s="27" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>27</v>
       </c>
-      <c r="B35" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="13" t="s">
+      <c r="B35" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E35" s="3">
         <v>8</v>
       </c>
-      <c r="G35" s="7"/>
+      <c r="G35" s="6"/>
     </row>
     <row r="36" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>28</v>
       </c>
-      <c r="B36" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="13" t="s">
+      <c r="B36" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E36" s="3">
         <v>6</v>
       </c>
-      <c r="G36" s="7"/>
+      <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>29</v>
       </c>
-      <c r="B37" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="13" t="s">
+      <c r="B37" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E37" s="3">
         <v>8</v>
       </c>
-      <c r="G37" s="7"/>
+      <c r="G37" s="6"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>30</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="E38" s="3">
         <v>6</v>
       </c>
-      <c r="G38" s="7"/>
+      <c r="G38" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1905,58 +2039,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>93</v>
+        <v>43</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>93</v>
+      <c r="C5" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1964,4 +2098,197 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="16.44140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="39.77734375" style="32" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" style="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="36">
+        <v>1</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="38">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="E2" s="38">
+        <v>9.75E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="37">
+        <v>2</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="38">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="E3" s="38">
+        <v>9.75E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="37">
+        <v>3</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="38">
+        <v>4.2500000000000003E-3</v>
+      </c>
+      <c r="E4" s="38">
+        <v>5.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="37">
+        <v>4</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="38">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="E5" s="38">
+        <v>3.7499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="37">
+        <v>4</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="38">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="E6" s="38">
+        <v>3.7499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="37">
+        <v>5</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="38">
+        <v>1.25E-3</v>
+      </c>
+      <c r="E7" s="38">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="37">
+        <v>5</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="38">
+        <v>1.25E-3</v>
+      </c>
+      <c r="E8" s="38">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="37">
+        <v>6</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="38">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E9" s="38">
+        <v>8.2500000000000004E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="37">
+        <v>6</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="38">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E10" s="38">
+        <v>8.2500000000000004E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacProd.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacProd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D352874F-5960-4FA7-B8A7-E802F8677DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61C9C1E-5FF5-4879-BBC1-BADF3BD83B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="131">
   <si>
     <t>備註說明</t>
   </si>
@@ -198,14 +198,6 @@
   </si>
   <si>
     <t>NVARCHAR2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -554,6 +546,9 @@
     <t>政府補貼增0.125%
 (111.3.23~111.12.20)</t>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -972,9 +967,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1012,9 +1007,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1047,26 +1042,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1099,26 +1077,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1294,8 +1255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1315,7 +1276,7 @@
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>10</v>
@@ -1424,13 +1385,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E9" s="3">
         <v>5</v>
@@ -1460,13 +1421,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E11" s="3">
         <v>8</v>
@@ -1484,13 +1445,13 @@
         <v>13</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E12" s="3">
         <v>8</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1501,7 +1462,7 @@
         <v>44</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>47</v>
@@ -1510,7 +1471,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1518,10 +1479,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>47</v>
@@ -1530,7 +1491,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1538,10 +1499,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>47</v>
@@ -1550,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1588,7 +1549,7 @@
         <v>2</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1602,7 +1563,7 @@
         <v>31</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E18" s="3">
         <v>6</v>
@@ -1617,13 +1578,13 @@
         <v>11</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E19" s="3">
         <v>6</v>
@@ -1638,7 +1599,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>21</v>
@@ -1650,7 +1611,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
@@ -1658,10 +1619,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>47</v>
@@ -1671,7 +1632,7 @@
       </c>
       <c r="F21" s="20"/>
       <c r="G21" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
@@ -1679,10 +1640,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>47</v>
@@ -1691,7 +1652,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1699,7 +1660,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>32</v>
@@ -1711,7 +1672,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1719,19 +1680,19 @@
         <v>16</v>
       </c>
       <c r="B24" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>62</v>
-      </c>
       <c r="D24" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -1739,10 +1700,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>47</v>
@@ -1751,7 +1712,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="113.4" x14ac:dyDescent="0.3">
@@ -1771,7 +1732,7 @@
         <v>3</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -1782,16 +1743,16 @@
         <v>42</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E27" s="3">
         <v>1</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1799,13 +1760,13 @@
         <v>20</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E28" s="20">
         <v>3</v>
@@ -1818,13 +1779,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E29" s="3">
         <v>5</v>
@@ -1839,13 +1800,13 @@
         <v>22</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E30" s="3">
         <v>3</v>
@@ -1857,13 +1818,13 @@
         <v>23</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E31" s="3">
         <v>5</v>
@@ -1878,13 +1839,13 @@
         <v>24</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E32" s="3">
         <v>3</v>
@@ -1896,10 +1857,10 @@
         <v>25</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D33" s="24" t="s">
         <v>47</v>
@@ -1909,7 +1870,7 @@
       </c>
       <c r="F33" s="24"/>
       <c r="G33" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
@@ -1917,10 +1878,10 @@
         <v>26</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D34" s="24" t="s">
         <v>47</v>
@@ -1930,7 +1891,7 @@
       </c>
       <c r="F34" s="24"/>
       <c r="G34" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1944,7 +1905,7 @@
         <v>17</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="E35" s="3">
         <v>8</v>
@@ -1980,7 +1941,7 @@
         <v>16</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="E37" s="3">
         <v>8</v>
@@ -2051,46 +2012,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2119,30 +2080,30 @@
   <sheetData>
     <row r="1" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="31" t="s">
         <v>129</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B2" s="36">
         <v>1</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D2" s="38">
         <v>8.5000000000000006E-3</v>
@@ -2153,13 +2114,13 @@
     </row>
     <row r="3" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B3" s="37">
         <v>2</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D3" s="38">
         <v>8.5000000000000006E-3</v>
@@ -2170,13 +2131,13 @@
     </row>
     <row r="4" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B4" s="37">
         <v>3</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D4" s="38">
         <v>4.2500000000000003E-3</v>
@@ -2187,13 +2148,13 @@
     </row>
     <row r="5" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B5" s="37">
         <v>4</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D5" s="38">
         <v>2.5000000000000001E-3</v>
@@ -2204,13 +2165,13 @@
     </row>
     <row r="6" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B6" s="37">
         <v>4</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D6" s="38">
         <v>2.5000000000000001E-3</v>
@@ -2221,13 +2182,13 @@
     </row>
     <row r="7" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="34" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B7" s="37">
         <v>5</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D7" s="38">
         <v>1.25E-3</v>
@@ -2238,13 +2199,13 @@
     </row>
     <row r="8" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B8" s="37">
         <v>5</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D8" s="38">
         <v>1.25E-3</v>
@@ -2255,13 +2216,13 @@
     </row>
     <row r="9" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B9" s="37">
         <v>6</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D9" s="38">
         <v>7.0000000000000001E-3</v>
@@ -2272,13 +2233,13 @@
     </row>
     <row r="10" spans="1:5" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B10" s="37">
         <v>6</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D10" s="38">
         <v>7.0000000000000001E-3</v>
